--- a/data/data_full.xlsx
+++ b/data/data_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhodgson/Dropbox/My Mac (David’s MacBook Air)/Documents/research/covid/hit_anal/hit-analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akucharski/Documents/GitHub/hit-analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8B9FB1-CA39-6B4B-9355-877C9F4FD6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038A1E38-E093-7146-94F9-0540B017BE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{15517529-B5EB-164D-B0D8-4E037704B3FB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{15517529-B5EB-164D-B0D8-4E037704B3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>r0_mean</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t xml:space="preserve"> http://dx.doi.org/10.2139/ssrn.3790399</t>
+  </si>
+  <si>
+    <t>sars_cov_2_delta</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/publications/lshtm-local-area-reproduction-numbers-and-s-gene-positivity-1-june-2021</t>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -890,7 +896,42 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="J11" s="1"/>
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <f>B7*1.4</f>
+        <v>6.2439999999999998</v>
+      </c>
+      <c r="C11">
+        <f>C7*1.4</f>
+        <v>3.5839999999999996</v>
+      </c>
+      <c r="D11">
+        <f>D7*1.4</f>
+        <v>8.8899999999999988</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>75</v>
+      </c>
+      <c r="H11">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>80</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="20">
       <c r="G13" s="3"/>

--- a/data/data_full.xlsx
+++ b/data/data_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akucharski/Documents/GitHub/hit-analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038A1E38-E093-7146-94F9-0540B017BE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D75C88-DEE3-B94D-A70A-B374983E69D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{15517529-B5EB-164D-B0D8-4E037704B3FB}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -918,13 +918,13 @@
         <v>24</v>
       </c>
       <c r="G11">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H11">
         <v>70</v>
       </c>
       <c r="I11">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>32</v>
